--- a/ASRS/my_excel_file.xlsx
+++ b/ASRS/my_excel_file.xlsx
@@ -450,16 +450,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -467,80 +467,80 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
